--- a/biology/Zoologie/Dallasiella/Dallasiella.xlsx
+++ b/biology/Zoologie/Dallasiella/Dallasiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dallasiella willistoni
 Dallasiella willistoni, la première découverte du genre fossile Dallasiella, est une espèce fossile de grands requins lamniformes de la famille des Cretoxyrhinidae.
@@ -512,51 +524,159 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le  genre Dallasiella et l'espèce Dallasiella willistoni sont décrits en 1999 par le paléontologue français Henri Cappetta et le paléontologue américain Gerard Ramon Case[1],[2],[3].
-Espèce type
-L'espèce type est Dallasiella willistoni.
-Citations
-L'espèce Dallasiella willistoni est citée :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le  genre Dallasiella et l'espèce Dallasiella willistoni sont décrits en 1999 par le paléontologue français Henri Cappetta et le paléontologue américain Gerard Ramon Case.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dallasiella</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dallasiella</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèce type</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type est Dallasiella willistoni.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dallasiella</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dallasiella</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Dallasiella willistoni est citée :
 en 2006 par Cumbaa et al. p. 147
 en 2008 par Cook et al. p. 1191 fig. 5B
 en 2013 par Cook et al. p. 576 figs. 12B-H
 en 2013 par Guinot et al. p. 633 figs. 16A-M
-en 2016 par Bice &amp; Shimada p. 177 figs. 3I-K[2].
-Fossiles
-Selon Paleobiology Database en 2023, dix collections de fossiles sont référencées, toutes du Crétacé, dans quatre pays : Canada (trois collections en Alberta), une en France, deux au Royaume-Uni et quatre aux États-Unis (Kansas, Montana et Texas)[3].
+en 2016 par Bice &amp; Shimada p. 177 figs. 3I-K.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dallasiella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dallasiella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, dix collections de fossiles sont référencées, toutes du Crétacé, dans quatre pays : Canada (trois collections en Alberta), une en France, deux au Royaume-Uni et quatre aux États-Unis (Kansas, Montana et Texas).
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Dallasiella</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dallasiella</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dallasiella est un genre fossile de requins maquereaux qui a vécu pendant le Crétacé supérieur. Il contient deux espèces valides, D. willistoni et D. brachyodon Siversson, Cederström, &amp; Ryan, 2022[4][note 1], qui ont été trouvées en Amérique du Nord et en Europe[4],[1]. Alors qu'il était autrefois placé dans les familles Cretoxyrhinidae et Archaeolamnidae, il est maintenant considéré comme Lamniformes incertae sedis[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dallasiella est un genre fossile de requins maquereaux qui a vécu pendant le Crétacé supérieur. Il contient deux espèces valides, D. willistoni et D. brachyodon Siversson, Cederström, &amp; Ryan, 2022[note 1], qui ont été trouvées en Amérique du Nord et en Europe,. Alors qu'il était autrefois placé dans les familles Cretoxyrhinidae et Archaeolamnidae, il est maintenant considéré comme Lamniformes incertae sedis.
 </t>
         </is>
       </c>
